--- a/reference/parse table.xlsx
+++ b/reference/parse table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonTaeUi\Documents\GitHub\SimpleCompiler\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vodianova\AllProjects\PyChram\SimpleCompiler\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E59831-2D4A-4D1E-A88D-DCB60A138A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73EAA9E-02B2-40CA-894A-94CDC81ED57D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF62E4B2-4FC2-490F-846C-CC76729BE63A}"/>
+    <workbookView xWindow="-28920" yWindow="3285" windowWidth="29040" windowHeight="18240" xr2:uid="{DF62E4B2-4FC2-490F-846C-CC76729BE63A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>(</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,30 +205,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slist-&gt;stat slist'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>slist'-&gt;stat slist'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cond-&gt;expr&gt;expr | expr==expr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expr-&gt;term | term+term</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>term-&gt;fact*fact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fact-&gt;num | word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decls'-&gt;e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat -&gt; e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>slist'-&gt;e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,19 +245,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat-&gt;word=expr; | e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stat-&gt;iF cond THEN block ELSE block | e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stat-&gt;WHILE cond block | e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stat-&gt;RETURN expr; | e</t>
+    <t>slist-&gt;slist'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat-&gt;WHILE cond block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat-&gt;iF cond THEN block ELSE block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat-&gt;RETURN expr;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr-&gt;term term'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-&gt;fact fact'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond-&gt;expr expr'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr'-&gt; ==expr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr'-&gt; &gt;expr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term'-&gt;e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term'-&gt;+term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fact'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fact'-&gt;*fact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fact'-&gt;e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fact-&gt;word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fact-&gt;num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stat-&gt;word=expr ; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,19 +685,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0A30BF-2FA5-4196-A8F1-073E38C1CD7B}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="5" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="38.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.75" customWidth="1"/>
     <col min="17" max="17" width="17.625" bestFit="1" customWidth="1"/>
@@ -745,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -764,19 +803,19 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
         <v>42</v>
@@ -808,11 +847,11 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
         <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -820,13 +859,13 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" t="s">
         <v>51</v>
       </c>
-      <c r="T8" t="s">
-        <v>57</v>
-      </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -834,28 +873,28 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -863,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -880,19 +919,19 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -900,19 +939,16 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
         <v>55</v>
       </c>
-      <c r="O12" t="s">
-        <v>60</v>
-      </c>
       <c r="P12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -920,48 +956,108 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reference/parse table.xlsx
+++ b/reference/parse table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vodianova\AllProjects\PyChram\SimpleCompiler\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73EAA9E-02B2-40CA-894A-94CDC81ED57D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8375E2-D2FD-47B1-82EB-245E6EF14F45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3285" windowWidth="29040" windowHeight="18240" xr2:uid="{DF62E4B2-4FC2-490F-846C-CC76729BE63A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>(</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,10 +688,10 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -791,6 +791,12 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
       <c r="T3" t="s">
         <v>37</v>
       </c>
@@ -902,6 +908,9 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
         <v>53</v>
       </c>
       <c r="O10" t="s">

--- a/reference/parse table.xlsx
+++ b/reference/parse table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vodianova\AllProjects\PyChram\SimpleCompiler\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vodianova\AllProjects\Python\SimpleCompiler\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8375E2-D2FD-47B1-82EB-245E6EF14F45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9375FBB2-E576-4582-8CDF-CD8D8F175C04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3285" windowWidth="29040" windowHeight="18240" xr2:uid="{DF62E4B2-4FC2-490F-846C-CC76729BE63A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>(</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decls'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slist'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decls-&gt;decls'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decls-&gt;vtype words ;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,18 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decls'-&gt;decl decls'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slist'-&gt;stat slist'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decls'-&gt;e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>words'-&gt;e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slist'-&gt;e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vtype-&gt;int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slist-&gt;slist'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stat-&gt;WHILE cond block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +286,22 @@
   </si>
   <si>
     <t xml:space="preserve">stat-&gt;word=expr ; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decls-&gt;e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decls-&gt;decl decls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slist-&gt;stat slist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slist-&gt;e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,13 +669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0A30BF-2FA5-4196-A8F1-073E38C1CD7B}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -767,10 +751,10 @@
         <v>16</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V1" t="s">
         <v>17</v>
@@ -781,10 +765,10 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -792,72 +776,69 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>44</v>
-      </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="T5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" t="s">
-        <v>39</v>
+      <c r="D5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" t="s">
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" t="s">
         <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -865,13 +846,28 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -879,28 +875,19 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -908,19 +895,16 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -928,140 +912,103 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" t="s">
         <v>54</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N14" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" t="s">
-        <v>68</v>
-      </c>
-      <c r="R18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
